--- a/21_população-por-macroárea_2020.xlsx
+++ b/21_população-por-macroárea_2020.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1004494</v>
+        <v>987490</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>215979</v>
+        <v>214372</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>2352346</v>
+        <v>2362353</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>51787</v>
+        <v>23202</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>2499083</v>
+        <v>2503180</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>1833713</v>
+        <v>1856094</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>2778383</v>
+        <v>2788154</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>1133875</v>
+        <v>1134816</v>
       </c>
     </row>
   </sheetData>
